--- a/questionnaires/RBDstandardized_questionnaireMDDW_EN.xlsx
+++ b/questionnaires/RBDstandardized_questionnaireMDDW_EN.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RBD_Resilience_guide_FR\questionnaires\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53A2E3AE-810B-422A-8809-E674CD5334F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C91D60C-E786-4B1D-A1A5-12FBA6300322}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-1545" windowWidth="25440" windowHeight="15390" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-1545" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -1484,10 +1484,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N267"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
+      <selection pane="bottomLeft" activeCell="A32" sqref="A32:XFD32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.5703125" defaultRowHeight="50.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5125,7 +5125,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -5176,18 +5176,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5408,14 +5408,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D66C5643-24C7-4807-886B-BE44B695FAF4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{50755B8E-7E00-4BEC-BA51-4E6E4B22BCE9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -5428,6 +5420,14 @@
     <ds:schemaRef ds:uri="8dd5283b-55c2-4f3c-990c-ab18dea8320e"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D66C5643-24C7-4807-886B-BE44B695FAF4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
